--- a/Stocks/SRPT.xlsx
+++ b/Stocks/SRPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="8_{E5AA701E-4E5C-4693-867F-0B9DF357AD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65FD3E10-6A7B-4D36-B3E6-01C9A0E4B46A}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="8_{E5AA701E-4E5C-4693-867F-0B9DF357AD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB96DED2-05D6-4DF8-A2B0-6BCF75A89782}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4169B73F-CA98-4416-AEF1-3CC0FE1346E4}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="21600" windowHeight="11295" xr2:uid="{4169B73F-CA98-4416-AEF1-3CC0FE1346E4}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -305,18 +305,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -332,33 +326,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,6 +477,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,7 +803,7 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -870,27 +869,27 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -904,2156 +903,2156 @@
   <dimension ref="A2:AP64"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A6:A10"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.875" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="9" style="3"/>
+    <col min="16" max="16" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.875" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="3">
         <v>2021</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="3">
         <f>+S2+1</f>
         <v>2022</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="3">
         <f t="shared" ref="U2:AB2" si="0">+T2+1</f>
         <v>2023</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="3">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="3">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="3">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="3">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="3">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="3">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="3">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="5">
         <v>256.51781249999999</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="5">
         <v>558.375</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="5">
         <v>800</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="5">
         <v>800</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="5">
         <v>800</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="5">
         <v>800</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="5">
         <v>800</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="5">
         <v>800</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="5">
         <v>800</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AE3" s="5">
         <v>800</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AF3" s="5">
         <v>800</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AG3" s="5">
         <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3">
+      <c r="U4" s="5"/>
+      <c r="V4" s="5">
         <v>600</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="5">
         <v>1158.375</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="5">
         <v>1958.375</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="5">
         <v>2758.375</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="5">
         <v>3558.375</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="5">
         <v>4358.375</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="5">
         <v>5158.375</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="5">
         <v>5958.375</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="5">
         <v>6758.375</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="5">
         <v>7558.375</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AF4" s="5">
         <v>8358.375</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AG4" s="5">
         <v>9158.375</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="5">
         <v>200.29999999999998</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="5">
         <v>820.85699999999997</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="5">
         <v>1786.8</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="5">
         <v>2560</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="5">
         <v>2560</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="5">
         <v>2560</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="5">
         <v>2560</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="5">
         <v>2560</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="5">
         <v>2560</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="5">
         <v>2560</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE6" s="5">
         <v>2560</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AF6" s="5">
         <v>2560</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AG6" s="5">
         <v>2560</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="5">
         <v>944.57600000000002</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="5">
         <v>967.17499999999995</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="5">
         <v>1026</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="5">
         <v>923.4</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="5">
         <v>831.06</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="5">
         <v>747.95399999999995</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="5">
         <v>673.15859999999998</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="5">
         <v>605.84274000000005</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC7" s="5">
         <v>545.25846600000011</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="5">
         <v>490.73261940000009</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AE7" s="5">
         <v>441.65935746000008</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AF7" s="5">
         <v>397.49342171400008</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AG7" s="5">
         <v>357.7440795426001</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
+      <c r="A11" s="6"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <v>207.774</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="6">
         <v>235.93299999999999</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="6">
         <v>231.495</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="6">
         <v>238.988</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="10">
         <v>309.322</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="6">
         <v>365.07100000000003</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="6">
         <v>359.48399999999998</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="6">
         <v>360.548</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="6">
         <v>429.8</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="6">
         <v>638.20000000000005</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="3">
         <v>612.40099999999995</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="3">
         <v>843.76900000000001</v>
       </c>
-      <c r="U12" s="1">
-        <f>+U6+U7</f>
+      <c r="U12" s="8">
+        <f t="shared" ref="U12:AB12" si="1">+U6+U7</f>
         <v>1144.876</v>
       </c>
-      <c r="V12" s="1">
-        <f>+V6+V7</f>
+      <c r="V12" s="8">
+        <f t="shared" si="1"/>
         <v>1788.0319999999999</v>
       </c>
-      <c r="W12" s="1">
-        <f>+W6+W7</f>
+      <c r="W12" s="8">
+        <f t="shared" si="1"/>
         <v>2812.8</v>
       </c>
-      <c r="X12" s="1">
-        <f>+X6+X7</f>
+      <c r="X12" s="8">
+        <f t="shared" si="1"/>
         <v>3483.4</v>
       </c>
-      <c r="Y12" s="1">
-        <f>+Y6+Y7</f>
+      <c r="Y12" s="8">
+        <f t="shared" si="1"/>
         <v>3391.06</v>
       </c>
-      <c r="Z12" s="1">
-        <f>+Z6+Z7</f>
+      <c r="Z12" s="8">
+        <f t="shared" si="1"/>
         <v>3307.9539999999997</v>
       </c>
-      <c r="AA12" s="1">
-        <f>+AA6+AA7</f>
+      <c r="AA12" s="8">
+        <f t="shared" si="1"/>
         <v>3233.1585999999998</v>
       </c>
-      <c r="AB12" s="1">
-        <f>+AB6+AB7</f>
+      <c r="AB12" s="8">
+        <f t="shared" si="1"/>
         <v>3165.84274</v>
       </c>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="10">
         <v>22.495000000000001</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="6">
         <v>22.494</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="6">
         <v>22.004999999999999</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="6">
         <v>22.25</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="10">
         <v>22.495000000000001</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="6">
         <v>31.71</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="6">
         <v>53.98</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="6">
         <v>2.383</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="6">
         <v>37.401000000000003</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="6">
         <v>20.254999999999999</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="8">
         <v>89.486000000000004</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="8">
         <v>89.543999999999997</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="8">
         <v>98.46</v>
       </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
     </row>
     <row r="14" spans="1:33" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="13">
-        <f t="shared" ref="D14:L14" si="1">+D12+D13</f>
+      <c r="D14" s="11">
+        <f t="shared" ref="D14:L14" si="2">+D12+D13</f>
         <v>230.26900000000001</v>
       </c>
-      <c r="E14" s="13">
-        <f t="shared" si="1"/>
+      <c r="E14" s="11">
+        <f t="shared" si="2"/>
         <v>258.42700000000002</v>
       </c>
-      <c r="F14" s="13">
-        <f t="shared" si="1"/>
+      <c r="F14" s="11">
+        <f t="shared" si="2"/>
         <v>253.5</v>
       </c>
-      <c r="G14" s="13">
-        <f t="shared" si="1"/>
+      <c r="G14" s="11">
+        <f t="shared" si="2"/>
         <v>261.238</v>
       </c>
-      <c r="H14" s="13">
-        <f t="shared" si="1"/>
+      <c r="H14" s="11">
+        <f t="shared" si="2"/>
         <v>331.81700000000001</v>
       </c>
-      <c r="I14" s="13">
-        <f t="shared" si="1"/>
+      <c r="I14" s="11">
+        <f t="shared" si="2"/>
         <v>396.78100000000001</v>
       </c>
-      <c r="J14" s="13">
-        <f t="shared" si="1"/>
+      <c r="J14" s="11">
+        <f t="shared" si="2"/>
         <v>413.464</v>
       </c>
-      <c r="K14" s="13">
-        <f t="shared" si="1"/>
+      <c r="K14" s="11">
+        <f t="shared" si="2"/>
         <v>362.93099999999998</v>
       </c>
-      <c r="L14" s="13">
-        <f t="shared" si="1"/>
+      <c r="L14" s="11">
+        <f t="shared" si="2"/>
         <v>467.20100000000002</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="11">
         <f>+M12+M13</f>
         <v>658.45500000000004</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U14" s="12">
         <f>+SUM(F14:I14)</f>
         <v>1243.336</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="12">
         <f>+SUM(J14:M14)</f>
         <v>1902.0509999999999</v>
       </c>
-      <c r="W14" s="14">
-        <f t="shared" ref="W14:AB14" si="2">+W12+W13</f>
+      <c r="W14" s="12">
+        <f t="shared" ref="W14:AB14" si="3">+W12+W13</f>
         <v>2812.8</v>
       </c>
-      <c r="X14" s="14">
-        <f t="shared" si="2"/>
+      <c r="X14" s="12">
+        <f t="shared" si="3"/>
         <v>3483.4</v>
       </c>
-      <c r="Y14" s="14">
-        <f t="shared" si="2"/>
+      <c r="Y14" s="12">
+        <f t="shared" si="3"/>
         <v>3391.06</v>
       </c>
-      <c r="Z14" s="14">
-        <f t="shared" si="2"/>
+      <c r="Z14" s="12">
+        <f t="shared" si="3"/>
         <v>3307.9539999999997</v>
       </c>
-      <c r="AA14" s="14">
-        <f t="shared" si="2"/>
+      <c r="AA14" s="12">
+        <f t="shared" si="3"/>
         <v>3233.1585999999998</v>
       </c>
-      <c r="AB14" s="14">
-        <f t="shared" si="2"/>
+      <c r="AB14" s="12">
+        <f t="shared" si="3"/>
         <v>3165.84274</v>
       </c>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="10">
         <v>39.951999999999998</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="6">
         <v>30.798999999999999</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <v>35.017000000000003</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="6">
         <v>34.124000000000002</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="10">
         <v>37.026000000000003</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="6">
         <v>44.176000000000002</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="6">
         <v>50.558999999999997</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="6">
         <v>44.545000000000002</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="6">
         <v>91.691000000000003</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="6">
         <v>132.304</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="8">
         <f>+SUM(F15:I15)</f>
         <v>150.34300000000002</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="8">
         <f>+SUM(J15:M15)</f>
         <v>319.09900000000005</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="10">
         <v>190.31700000000001</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <v>227.62800000000001</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="6">
         <v>218.483</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="6">
         <v>227.114</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="10">
         <v>294.791</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="6">
         <v>352.60500000000002</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="6">
         <v>362.90499999999997</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="6">
         <v>318.38599999999997</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="6">
         <v>375.51</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="6">
         <f>+M14-M15</f>
         <v>526.15100000000007</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="8">
         <f>+U14-U15</f>
         <v>1092.9929999999999</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="8">
         <f>+V14-V15</f>
         <v>1582.9519999999998</v>
       </c>
-      <c r="W16" s="1">
-        <f>+W14*0.8</f>
-        <v>2250.2400000000002</v>
-      </c>
-      <c r="X16" s="1">
-        <f t="shared" ref="X16:AB16" si="3">+X14*0.8</f>
-        <v>2786.7200000000003</v>
-      </c>
-      <c r="Y16" s="1">
-        <f t="shared" si="3"/>
-        <v>2712.848</v>
-      </c>
-      <c r="Z16" s="1">
-        <f t="shared" si="3"/>
-        <v>2646.3631999999998</v>
-      </c>
-      <c r="AA16" s="1">
-        <f t="shared" si="3"/>
-        <v>2586.5268799999999</v>
-      </c>
-      <c r="AB16" s="1">
-        <f t="shared" si="3"/>
-        <v>2532.6741920000004</v>
-      </c>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
+      <c r="W16" s="8">
+        <f>+W14*0.85</f>
+        <v>2390.88</v>
+      </c>
+      <c r="X16" s="8">
+        <f t="shared" ref="X16:AB16" si="4">+X14*0.85</f>
+        <v>2960.89</v>
+      </c>
+      <c r="Y16" s="8">
+        <f t="shared" si="4"/>
+        <v>2882.4009999999998</v>
+      </c>
+      <c r="Z16" s="8">
+        <f t="shared" si="4"/>
+        <v>2811.7608999999998</v>
+      </c>
+      <c r="AA16" s="8">
+        <f t="shared" si="4"/>
+        <v>2748.1848099999997</v>
+      </c>
+      <c r="AB16" s="8">
+        <f t="shared" si="4"/>
+        <v>2690.9663289999999</v>
+      </c>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="10">
         <v>216.70699999999999</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="6">
         <v>213.804</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="6">
         <v>245.679</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="6">
         <v>241.89</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="10">
         <v>194.30099999999999</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="6">
         <v>195.517</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="6">
         <v>200.39599999999999</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="6">
         <v>179.69</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="6">
         <v>222.483</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="6">
         <v>199.953</v>
       </c>
-      <c r="U17" s="1">
-        <f t="shared" ref="U17:U18" si="4">+SUM(F17:I17)</f>
+      <c r="U17" s="8">
+        <f t="shared" ref="U17:U18" si="5">+SUM(F17:I17)</f>
         <v>877.38699999999994</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="8">
         <f>+SUM(J17:M17)</f>
         <v>802.52199999999993</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17" s="8">
         <f>+V17*1.15</f>
         <v>922.9002999999999</v>
       </c>
-      <c r="X17" s="1">
-        <f t="shared" ref="X17:AB17" si="5">+W17*1.15</f>
+      <c r="X17" s="8">
+        <f t="shared" ref="X17:AB17" si="6">+W17*1.15</f>
         <v>1061.3353449999997</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17" s="8">
+        <f t="shared" si="6"/>
+        <v>1220.5356467499996</v>
+      </c>
+      <c r="Z17" s="8">
+        <f t="shared" si="6"/>
+        <v>1403.6159937624996</v>
+      </c>
+      <c r="AA17" s="8">
+        <f t="shared" si="6"/>
+        <v>1614.1583928268744</v>
+      </c>
+      <c r="AB17" s="8">
+        <f t="shared" si="6"/>
+        <v>1856.2821517509055</v>
+      </c>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="10">
+        <v>104.78700000000001</v>
+      </c>
+      <c r="E18" s="6">
+        <v>120.47799999999999</v>
+      </c>
+      <c r="F18" s="6">
+        <v>110.714</v>
+      </c>
+      <c r="G18" s="6">
+        <v>118.56399999999999</v>
+      </c>
+      <c r="H18" s="10">
+        <v>120.893</v>
+      </c>
+      <c r="I18" s="6">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="J18" s="6">
+        <v>127.003</v>
+      </c>
+      <c r="K18" s="6">
+        <v>138.79599999999999</v>
+      </c>
+      <c r="L18" s="6">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="M18" s="6">
+        <v>163.87299999999999</v>
+      </c>
+      <c r="U18" s="8">
         <f t="shared" si="5"/>
-        <v>1220.5356467499996</v>
-      </c>
-      <c r="Z17" s="1">
-        <f t="shared" si="5"/>
-        <v>1403.6159937624996</v>
-      </c>
-      <c r="AA17" s="1">
-        <f t="shared" si="5"/>
-        <v>1614.1583928268744</v>
-      </c>
-      <c r="AB17" s="1">
-        <f t="shared" si="5"/>
-        <v>1856.2821517509055</v>
-      </c>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="8">
-        <v>104.78700000000001</v>
-      </c>
-      <c r="E18" s="10">
-        <v>120.47799999999999</v>
-      </c>
-      <c r="F18" s="10">
-        <v>110.714</v>
-      </c>
-      <c r="G18" s="10">
-        <v>118.56399999999999</v>
-      </c>
-      <c r="H18" s="8">
-        <v>120.893</v>
-      </c>
-      <c r="I18" s="10">
-        <v>131.69999999999999</v>
-      </c>
-      <c r="J18" s="10">
-        <v>127.003</v>
-      </c>
-      <c r="K18" s="10">
-        <v>138.79599999999999</v>
-      </c>
-      <c r="L18" s="10">
-        <v>128.80000000000001</v>
-      </c>
-      <c r="M18" s="10">
-        <v>163.87299999999999</v>
-      </c>
-      <c r="U18" s="1">
-        <f t="shared" si="4"/>
         <v>481.87099999999998</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="8">
         <f>+SUM(J18:M18)</f>
         <v>558.47199999999998</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="8">
         <f>+V18*0.95</f>
         <v>530.5483999999999</v>
       </c>
-      <c r="X18" s="1">
-        <f t="shared" ref="X18:AB18" si="6">+W18*0.95</f>
+      <c r="X18" s="8">
+        <f t="shared" ref="X18:AB18" si="7">+W18*0.95</f>
         <v>504.02097999999989</v>
       </c>
-      <c r="Y18" s="1">
-        <f t="shared" si="6"/>
+      <c r="Y18" s="8">
+        <f t="shared" si="7"/>
         <v>478.81993099999988</v>
       </c>
-      <c r="Z18" s="1">
-        <f t="shared" si="6"/>
+      <c r="Z18" s="8">
+        <f t="shared" si="7"/>
         <v>454.87893444999986</v>
       </c>
-      <c r="AA18" s="1">
-        <f t="shared" si="6"/>
+      <c r="AA18" s="8">
+        <f t="shared" si="7"/>
         <v>432.13498772749983</v>
       </c>
-      <c r="AB18" s="1">
-        <f t="shared" si="6"/>
+      <c r="AB18" s="8">
+        <f t="shared" si="7"/>
         <v>410.52823834112485</v>
       </c>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="10">
         <v>321.49400000000003</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <v>334.28199999999998</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="6">
         <v>356.39300000000003</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="6">
         <v>360.45399999999995</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="6">
         <v>315.19399999999996</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="6">
         <v>327.21699999999998</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="6">
         <v>327.399</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="6">
         <v>318.48599999999999</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="6">
         <v>351.28300000000002</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="6">
         <v>363.82600000000002</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="8">
         <f>+U17+U18</f>
         <v>1359.2579999999998</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="8">
         <f>+V17+V18</f>
         <v>1360.9939999999999</v>
       </c>
-      <c r="W19" s="1">
-        <f t="shared" ref="W19:AB19" si="7">+W17+W18</f>
+      <c r="W19" s="8">
+        <f t="shared" ref="W19:AB19" si="8">+W17+W18</f>
         <v>1453.4486999999999</v>
       </c>
-      <c r="X19" s="1">
-        <f t="shared" si="7"/>
+      <c r="X19" s="8">
+        <f t="shared" si="8"/>
         <v>1565.3563249999997</v>
       </c>
-      <c r="Y19" s="1">
-        <f t="shared" si="7"/>
+      <c r="Y19" s="8">
+        <f t="shared" si="8"/>
         <v>1699.3555777499996</v>
       </c>
-      <c r="Z19" s="1">
-        <f t="shared" si="7"/>
+      <c r="Z19" s="8">
+        <f t="shared" si="8"/>
         <v>1858.4949282124994</v>
       </c>
-      <c r="AA19" s="1">
-        <f t="shared" si="7"/>
+      <c r="AA19" s="8">
+        <f t="shared" si="8"/>
         <v>2046.2933805543744</v>
       </c>
-      <c r="AB19" s="1">
-        <f t="shared" si="7"/>
+      <c r="AB19" s="8">
+        <f t="shared" si="8"/>
         <v>2266.8103900920305</v>
       </c>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="10">
-        <f t="shared" ref="D20:L20" si="8">+D16-D19</f>
+      <c r="D20" s="6">
+        <f t="shared" ref="D20:L20" si="9">+D16-D19</f>
         <v>-131.17700000000002</v>
       </c>
-      <c r="E20" s="10">
-        <f t="shared" si="8"/>
+      <c r="E20" s="6">
+        <f t="shared" si="9"/>
         <v>-106.65399999999997</v>
       </c>
-      <c r="F20" s="10">
-        <f t="shared" si="8"/>
+      <c r="F20" s="6">
+        <f t="shared" si="9"/>
         <v>-137.91000000000003</v>
       </c>
-      <c r="G20" s="10">
-        <f t="shared" si="8"/>
+      <c r="G20" s="6">
+        <f t="shared" si="9"/>
         <v>-133.33999999999995</v>
       </c>
-      <c r="H20" s="10">
-        <f t="shared" si="8"/>
+      <c r="H20" s="6">
+        <f t="shared" si="9"/>
         <v>-20.402999999999963</v>
       </c>
-      <c r="I20" s="10">
-        <f t="shared" si="8"/>
+      <c r="I20" s="6">
+        <f t="shared" si="9"/>
         <v>25.388000000000034</v>
       </c>
-      <c r="J20" s="10">
-        <f t="shared" si="8"/>
+      <c r="J20" s="6">
+        <f t="shared" si="9"/>
         <v>35.505999999999972</v>
       </c>
-      <c r="K20" s="10">
-        <f t="shared" si="8"/>
+      <c r="K20" s="6">
+        <f t="shared" si="9"/>
         <v>-0.10000000000002274</v>
       </c>
-      <c r="L20" s="10">
-        <f t="shared" si="8"/>
+      <c r="L20" s="6">
+        <f t="shared" si="9"/>
         <v>24.226999999999975</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="6">
         <f>+M16-M19</f>
         <v>162.32500000000005</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="5">
         <f>+U16-U19</f>
         <v>-266.26499999999987</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="5">
         <f>+V16-V19</f>
         <v>221.95799999999986</v>
       </c>
-      <c r="W20" s="3">
-        <f t="shared" ref="W20:AB20" si="9">+W16-W19</f>
-        <v>796.79130000000032</v>
-      </c>
-      <c r="X20" s="3">
-        <f t="shared" si="9"/>
-        <v>1221.3636750000005</v>
-      </c>
-      <c r="Y20" s="3">
-        <f t="shared" si="9"/>
-        <v>1013.4924222500003</v>
-      </c>
-      <c r="Z20" s="3">
-        <f t="shared" si="9"/>
-        <v>787.86827178750036</v>
-      </c>
-      <c r="AA20" s="3">
-        <f t="shared" si="9"/>
-        <v>540.23349944562551</v>
-      </c>
-      <c r="AB20" s="3">
-        <f t="shared" si="9"/>
-        <v>265.8638019079699</v>
-      </c>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
+      <c r="W20" s="5">
+        <f t="shared" ref="W20:AB20" si="10">+W16-W19</f>
+        <v>937.43130000000019</v>
+      </c>
+      <c r="X20" s="5">
+        <f t="shared" si="10"/>
+        <v>1395.5336750000001</v>
+      </c>
+      <c r="Y20" s="5">
+        <f t="shared" si="10"/>
+        <v>1183.0454222500002</v>
+      </c>
+      <c r="Z20" s="5">
+        <f t="shared" si="10"/>
+        <v>953.26597178750035</v>
+      </c>
+      <c r="AA20" s="5">
+        <f t="shared" si="10"/>
+        <v>701.89142944562536</v>
+      </c>
+      <c r="AB20" s="5">
+        <f t="shared" si="10"/>
+        <v>424.15593890796936</v>
+      </c>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="10">
         <v>-6.3220000000000001</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <v>5.5270000000000001</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="6">
         <v>12.707000000000001</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="6">
         <v>16.934000000000001</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="10">
         <v>-12.332000000000001</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="6">
         <v>15.746</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="6">
         <v>6.5430000000000001</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="6">
         <v>14.278</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="6">
         <v>11.81</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="6">
         <v>10.061999999999999</v>
       </c>
-      <c r="U21" s="1">
-        <f t="shared" ref="U21:U23" si="10">+SUM(F21:I21)</f>
+      <c r="U21" s="8">
+        <f t="shared" ref="U21:U23" si="11">+SUM(F21:I21)</f>
         <v>33.055</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="8">
         <f>+SUM(J21:M21)</f>
         <v>42.692999999999998</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="8">
         <f>+V32*$P$23</f>
         <v>14.033239999999996</v>
       </c>
-      <c r="X21" s="1">
-        <f t="shared" ref="X21:AB21" si="11">+W32*$P$23</f>
-        <v>52.952817920000015</v>
-      </c>
-      <c r="Y21" s="1">
-        <f t="shared" si="11"/>
-        <v>114.12000958016004</v>
-      </c>
-      <c r="Z21" s="1">
-        <f t="shared" si="11"/>
-        <v>168.24540630800774</v>
-      </c>
-      <c r="AA21" s="1">
-        <f t="shared" si="11"/>
-        <v>214.13886285659214</v>
-      </c>
-      <c r="AB21" s="1">
-        <f t="shared" si="11"/>
-        <v>250.34873624709857</v>
-      </c>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
+      <c r="X21" s="8">
+        <f t="shared" ref="X21:AB21" si="12">+W32*$P$23</f>
+        <v>59.703537920000009</v>
+      </c>
+      <c r="Y21" s="8">
+        <f t="shared" si="12"/>
+        <v>129.55492414016001</v>
+      </c>
+      <c r="Z21" s="8">
+        <f t="shared" si="12"/>
+        <v>192.5597407668877</v>
+      </c>
+      <c r="AA21" s="8">
+        <f t="shared" si="12"/>
+        <v>247.55937496949832</v>
+      </c>
+      <c r="AB21" s="8">
+        <f t="shared" si="12"/>
+        <v>293.13301358142422</v>
+      </c>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="10">
-        <f t="shared" ref="D22:L22" si="12">+D20+D21</f>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="6">
+        <f t="shared" ref="D22:L22" si="13">+D20+D21</f>
         <v>-137.49900000000002</v>
       </c>
-      <c r="E22" s="10">
-        <f t="shared" si="12"/>
+      <c r="E22" s="6">
+        <f t="shared" si="13"/>
         <v>-101.12699999999997</v>
       </c>
-      <c r="F22" s="10">
-        <f t="shared" si="12"/>
+      <c r="F22" s="6">
+        <f t="shared" si="13"/>
         <v>-125.20300000000003</v>
       </c>
-      <c r="G22" s="10">
-        <f t="shared" si="12"/>
+      <c r="G22" s="6">
+        <f t="shared" si="13"/>
         <v>-116.40599999999995</v>
       </c>
-      <c r="H22" s="10">
-        <f t="shared" si="12"/>
+      <c r="H22" s="6">
+        <f t="shared" si="13"/>
         <v>-32.734999999999964</v>
       </c>
-      <c r="I22" s="10">
-        <f t="shared" si="12"/>
+      <c r="I22" s="6">
+        <f t="shared" si="13"/>
         <v>41.134000000000036</v>
       </c>
-      <c r="J22" s="10">
-        <f t="shared" si="12"/>
+      <c r="J22" s="6">
+        <f t="shared" si="13"/>
         <v>42.048999999999971</v>
       </c>
-      <c r="K22" s="10">
-        <f t="shared" si="12"/>
+      <c r="K22" s="6">
+        <f t="shared" si="13"/>
         <v>14.177999999999978</v>
       </c>
-      <c r="L22" s="10">
-        <f t="shared" si="12"/>
+      <c r="L22" s="6">
+        <f t="shared" si="13"/>
         <v>36.036999999999978</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="6">
         <f>+M20+M21</f>
         <v>172.38700000000006</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="13">
         <v>0.1</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="5">
         <f>+U20+U21</f>
         <v>-233.20999999999987</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="5">
         <f>+V20+V21</f>
         <v>264.65099999999984</v>
       </c>
-      <c r="W22" s="3">
-        <f t="shared" ref="W22:AB22" si="13">+W20+W21</f>
-        <v>810.8245400000003</v>
-      </c>
-      <c r="X22" s="3">
-        <f t="shared" si="13"/>
-        <v>1274.3164929200004</v>
-      </c>
-      <c r="Y22" s="3">
-        <f t="shared" si="13"/>
-        <v>1127.6124318301604</v>
-      </c>
-      <c r="Z22" s="3">
-        <f t="shared" si="13"/>
-        <v>956.11367809550813</v>
-      </c>
-      <c r="AA22" s="3">
-        <f t="shared" si="13"/>
-        <v>754.37236230221765</v>
-      </c>
-      <c r="AB22" s="3">
-        <f t="shared" si="13"/>
-        <v>516.2125381550685</v>
-      </c>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
+      <c r="W22" s="5">
+        <f t="shared" ref="W22:AB22" si="14">+W20+W21</f>
+        <v>951.46454000000017</v>
+      </c>
+      <c r="X22" s="5">
+        <f t="shared" si="14"/>
+        <v>1455.23721292</v>
+      </c>
+      <c r="Y22" s="5">
+        <f t="shared" si="14"/>
+        <v>1312.6003463901602</v>
+      </c>
+      <c r="Z22" s="5">
+        <f t="shared" si="14"/>
+        <v>1145.825712554388</v>
+      </c>
+      <c r="AA22" s="5">
+        <f t="shared" si="14"/>
+        <v>949.45080441512368</v>
+      </c>
+      <c r="AB22" s="5">
+        <f t="shared" si="14"/>
+        <v>717.28895248939352</v>
+      </c>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="10">
         <v>0</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="6">
         <v>7.9379999999999997</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="6">
         <v>4.0449999999999999</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="6">
         <v>9.3550000000000004</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="10">
         <v>7.7629999999999999</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="6">
         <v>-5.2839999999999998</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="6">
         <v>5.3289999999999997</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="6">
         <v>7.117</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="6">
         <v>0.39500000000000002</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="6">
         <v>12.694000000000001</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="14">
         <v>0.04</v>
       </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="U23" s="1">
-        <f t="shared" si="10"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="U23" s="8">
+        <f t="shared" si="11"/>
         <v>15.879000000000001</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23" s="8">
         <f>+SUM(J23:M23)</f>
         <v>25.535</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23" s="8">
         <f>+W22*0.2</f>
-        <v>162.16490800000008</v>
-      </c>
-      <c r="X23" s="1">
-        <f t="shared" ref="X23:AB23" si="14">+X22*0.2</f>
-        <v>254.86329858400009</v>
-      </c>
-      <c r="Y23" s="1">
-        <f t="shared" si="14"/>
-        <v>225.5224863660321</v>
-      </c>
-      <c r="Z23" s="1">
-        <f t="shared" si="14"/>
-        <v>191.22273561910163</v>
-      </c>
-      <c r="AA23" s="1">
-        <f t="shared" si="14"/>
-        <v>150.87447246044354</v>
-      </c>
-      <c r="AB23" s="1">
-        <f t="shared" si="14"/>
-        <v>103.24250763101371</v>
-      </c>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
+        <v>190.29290800000004</v>
+      </c>
+      <c r="X23" s="8">
+        <f t="shared" ref="X23:AB23" si="15">+X22*0.2</f>
+        <v>291.04744258400001</v>
+      </c>
+      <c r="Y23" s="8">
+        <f t="shared" si="15"/>
+        <v>262.52006927803205</v>
+      </c>
+      <c r="Z23" s="8">
+        <f t="shared" si="15"/>
+        <v>229.16514251087762</v>
+      </c>
+      <c r="AA23" s="8">
+        <f t="shared" si="15"/>
+        <v>189.89016088302475</v>
+      </c>
+      <c r="AB23" s="8">
+        <f t="shared" si="15"/>
+        <v>143.4577904978787</v>
+      </c>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
     </row>
     <row r="24" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="10">
-        <f t="shared" ref="D24:L24" si="15">+D22+D23</f>
+      <c r="D24" s="6">
+        <f t="shared" ref="D24:L24" si="16">+D22+D23</f>
         <v>-137.49900000000002</v>
       </c>
-      <c r="E24" s="10">
-        <f t="shared" si="15"/>
+      <c r="E24" s="6">
+        <f t="shared" si="16"/>
         <v>-93.188999999999965</v>
       </c>
-      <c r="F24" s="10">
-        <f t="shared" si="15"/>
+      <c r="F24" s="6">
+        <f t="shared" si="16"/>
         <v>-121.15800000000003</v>
       </c>
-      <c r="G24" s="10">
-        <f t="shared" si="15"/>
+      <c r="G24" s="6">
+        <f t="shared" si="16"/>
         <v>-107.05099999999995</v>
       </c>
-      <c r="H24" s="10">
-        <f t="shared" si="15"/>
+      <c r="H24" s="6">
+        <f t="shared" si="16"/>
         <v>-24.971999999999966</v>
       </c>
-      <c r="I24" s="10">
-        <f t="shared" si="15"/>
+      <c r="I24" s="6">
+        <f t="shared" si="16"/>
         <v>35.850000000000037</v>
       </c>
-      <c r="J24" s="10">
-        <f t="shared" si="15"/>
+      <c r="J24" s="6">
+        <f t="shared" si="16"/>
         <v>47.377999999999972</v>
       </c>
-      <c r="K24" s="10">
-        <f t="shared" si="15"/>
+      <c r="K24" s="6">
+        <f t="shared" si="16"/>
         <v>21.294999999999977</v>
       </c>
-      <c r="L24" s="10">
-        <f t="shared" si="15"/>
+      <c r="L24" s="6">
+        <f t="shared" si="16"/>
         <v>36.431999999999981</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="6">
         <f>+M22+M23</f>
         <v>185.08100000000005</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="15">
         <f>+NPV(P22,W24:AP24)</f>
-        <v>7287.4148702001521</v>
-      </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="15" t="s">
+        <v>9169.4909956143656</v>
+      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="15">
+      <c r="T24" s="17">
         <v>-703.48800000000006</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="18">
         <f>+U22+U23</f>
         <v>-217.33099999999988</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V24" s="18">
         <f>+V22+V23</f>
         <v>290.18599999999986</v>
       </c>
-      <c r="W24" s="4">
-        <f t="shared" ref="W24:AB24" si="16">+W22+W23</f>
-        <v>972.98944800000038</v>
-      </c>
-      <c r="X24" s="4">
-        <f t="shared" si="16"/>
-        <v>1529.1797915040006</v>
-      </c>
-      <c r="Y24" s="4">
-        <f t="shared" si="16"/>
-        <v>1353.1349181961925</v>
-      </c>
-      <c r="Z24" s="4">
-        <f t="shared" si="16"/>
-        <v>1147.3364137146098</v>
-      </c>
-      <c r="AA24" s="4">
-        <f t="shared" si="16"/>
-        <v>905.24683476266114</v>
-      </c>
-      <c r="AB24" s="4">
-        <f t="shared" si="16"/>
-        <v>619.45504578608222</v>
-      </c>
-      <c r="AC24" s="14">
+      <c r="W24" s="18">
+        <f t="shared" ref="W24:AB24" si="17">+W22+W23</f>
+        <v>1141.7574480000003</v>
+      </c>
+      <c r="X24" s="18">
+        <f t="shared" si="17"/>
+        <v>1746.2846555040001</v>
+      </c>
+      <c r="Y24" s="18">
+        <f t="shared" si="17"/>
+        <v>1575.1204156681922</v>
+      </c>
+      <c r="Z24" s="18">
+        <f t="shared" si="17"/>
+        <v>1374.9908550652656</v>
+      </c>
+      <c r="AA24" s="18">
+        <f t="shared" si="17"/>
+        <v>1139.3409652981484</v>
+      </c>
+      <c r="AB24" s="18">
+        <f t="shared" si="17"/>
+        <v>860.74674298727223</v>
+      </c>
+      <c r="AC24" s="12">
         <f>+AB24*0.99</f>
-        <v>613.2604953282214</v>
-      </c>
-      <c r="AD24" s="14">
-        <f t="shared" ref="AD24:AP24" si="17">+AC24*0.99</f>
-        <v>607.12789037493917</v>
-      </c>
-      <c r="AE24" s="14">
-        <f t="shared" si="17"/>
-        <v>601.05661147118974</v>
-      </c>
-      <c r="AF24" s="14">
-        <f t="shared" si="17"/>
-        <v>595.04604535647786</v>
-      </c>
-      <c r="AG24" s="14">
-        <f t="shared" si="17"/>
-        <v>589.09558490291306</v>
-      </c>
-      <c r="AH24" s="14">
-        <f t="shared" si="17"/>
-        <v>583.20462905388388</v>
-      </c>
-      <c r="AI24" s="14">
-        <f t="shared" si="17"/>
-        <v>577.37258276334501</v>
-      </c>
-      <c r="AJ24" s="14">
-        <f t="shared" si="17"/>
-        <v>571.59885693571152</v>
-      </c>
-      <c r="AK24" s="14">
-        <f t="shared" si="17"/>
-        <v>565.88286836635439</v>
-      </c>
-      <c r="AL24" s="14">
-        <f t="shared" si="17"/>
-        <v>560.22403968269089</v>
-      </c>
-      <c r="AM24" s="14">
-        <f t="shared" si="17"/>
-        <v>554.62179928586397</v>
-      </c>
-      <c r="AN24" s="14">
-        <f t="shared" si="17"/>
-        <v>549.07558129300537</v>
-      </c>
-      <c r="AO24" s="14">
-        <f t="shared" si="17"/>
-        <v>543.58482548007532</v>
-      </c>
-      <c r="AP24" s="14">
-        <f t="shared" si="17"/>
-        <v>538.14897722527462</v>
+        <v>852.13927555739951</v>
+      </c>
+      <c r="AD24" s="12">
+        <f t="shared" ref="AD24:AP24" si="18">+AC24*0.99</f>
+        <v>843.61788280182554</v>
+      </c>
+      <c r="AE24" s="12">
+        <f t="shared" si="18"/>
+        <v>835.18170397380732</v>
+      </c>
+      <c r="AF24" s="12">
+        <f t="shared" si="18"/>
+        <v>826.82988693406924</v>
+      </c>
+      <c r="AG24" s="12">
+        <f t="shared" si="18"/>
+        <v>818.56158806472854</v>
+      </c>
+      <c r="AH24" s="12">
+        <f t="shared" si="18"/>
+        <v>810.37597218408121</v>
+      </c>
+      <c r="AI24" s="12">
+        <f t="shared" si="18"/>
+        <v>802.27221246224042</v>
+      </c>
+      <c r="AJ24" s="12">
+        <f t="shared" si="18"/>
+        <v>794.249490337618</v>
+      </c>
+      <c r="AK24" s="12">
+        <f t="shared" si="18"/>
+        <v>786.3069954342418</v>
+      </c>
+      <c r="AL24" s="12">
+        <f t="shared" si="18"/>
+        <v>778.44392547989935</v>
+      </c>
+      <c r="AM24" s="12">
+        <f t="shared" si="18"/>
+        <v>770.6594862251003</v>
+      </c>
+      <c r="AN24" s="12">
+        <f t="shared" si="18"/>
+        <v>762.9528913628493</v>
+      </c>
+      <c r="AO24" s="12">
+        <f t="shared" si="18"/>
+        <v>755.32336244922078</v>
+      </c>
+      <c r="AP24" s="12">
+        <f t="shared" si="18"/>
+        <v>747.77012882472854</v>
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="16">
-        <f t="shared" ref="D25:L25" si="18">+D24/D26</f>
+      <c r="D25" s="19">
+        <f t="shared" ref="D25:L25" si="19">+D24/D26</f>
         <v>-1.5691217419089791</v>
       </c>
-      <c r="E25" s="16">
-        <f t="shared" si="18"/>
+      <c r="E25" s="19">
+        <f t="shared" si="19"/>
         <v>-1.0609189644572961</v>
       </c>
-      <c r="F25" s="16">
-        <f t="shared" si="18"/>
+      <c r="F25" s="19">
+        <f t="shared" si="19"/>
         <v>-1.3738915474111539</v>
       </c>
-      <c r="G25" s="16">
-        <f t="shared" si="18"/>
+      <c r="G25" s="19">
+        <f t="shared" si="19"/>
         <v>-1.2063035957765678</v>
       </c>
-      <c r="H25" s="16">
-        <f t="shared" si="18"/>
+      <c r="H25" s="19">
+        <f t="shared" si="19"/>
         <v>-0.28093464883168862</v>
       </c>
-      <c r="I25" s="16">
-        <f t="shared" si="18"/>
+      <c r="I25" s="19">
+        <f t="shared" si="19"/>
         <v>0.33950792658673823</v>
       </c>
-      <c r="J25" s="16">
-        <f t="shared" si="18"/>
+      <c r="J25" s="19">
+        <f t="shared" si="19"/>
         <v>0.47801521480315567</v>
       </c>
-      <c r="K25" s="16">
-        <f t="shared" si="18"/>
+      <c r="K25" s="19">
+        <f t="shared" si="19"/>
         <v>0.2147885903332524</v>
       </c>
-      <c r="L25" s="16">
-        <f t="shared" si="18"/>
+      <c r="L25" s="19">
+        <f t="shared" si="19"/>
         <v>0.36269512583625341</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="19">
         <f>+M24/M26</f>
         <v>1.7062245330678323</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="3">
         <f>+P24/main!C3</f>
-        <v>75.205519816307032</v>
-      </c>
-      <c r="U25" s="3">
+        <v>94.62839004761986</v>
+      </c>
+      <c r="U25" s="5">
         <f>+U24/U26</f>
         <v>-2.3405921187252958</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="5">
         <f>+V24/V26</f>
         <v>2.8506901124809652</v>
       </c>
-      <c r="W25" s="3">
-        <f t="shared" ref="W25:AB25" si="19">+W24/W26</f>
-        <v>9.5583225895181521</v>
-      </c>
-      <c r="X25" s="3">
-        <f t="shared" si="19"/>
-        <v>15.022150316852503</v>
-      </c>
-      <c r="Y25" s="3">
-        <f t="shared" si="19"/>
-        <v>13.292744419629575</v>
-      </c>
-      <c r="Z25" s="3">
-        <f t="shared" si="19"/>
-        <v>11.271048810988848</v>
-      </c>
-      <c r="AA25" s="3">
-        <f t="shared" si="19"/>
-        <v>8.8928418366585902</v>
-      </c>
-      <c r="AB25" s="3">
-        <f t="shared" si="19"/>
-        <v>6.085318982131561</v>
-      </c>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
+      <c r="W25" s="5">
+        <f t="shared" ref="W25:AB25" si="20">+W24/W26</f>
+        <v>11.216242919593302</v>
+      </c>
+      <c r="X25" s="5">
+        <f t="shared" si="20"/>
+        <v>17.154915816140281</v>
+      </c>
+      <c r="Y25" s="5">
+        <f t="shared" si="20"/>
+        <v>15.473455628156513</v>
+      </c>
+      <c r="Z25" s="5">
+        <f t="shared" si="20"/>
+        <v>13.50744982627109</v>
+      </c>
+      <c r="AA25" s="5">
+        <f t="shared" si="20"/>
+        <v>11.192504202545786</v>
+      </c>
+      <c r="AB25" s="5">
+        <f t="shared" si="20"/>
+        <v>8.4556878332656051</v>
+      </c>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
     </row>
     <row r="26" spans="1:42" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="10">
         <v>87.628</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="6">
         <v>87.837999999999994</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="6">
         <v>88.186000000000007</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="6">
         <v>88.742999999999995</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="10">
         <v>88.888999999999996</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="6">
         <v>105.59399999999999</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="6">
         <v>99.114000000000004</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="6">
         <v>99.144000000000005</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="6">
         <v>100.44799999999999</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="6">
         <v>108.474</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="O26" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="20">
         <f>+P25/main!C2-1</f>
-        <v>0.36737308756921871</v>
-      </c>
-      <c r="U26" s="1">
+        <v>0.72051618268399742</v>
+      </c>
+      <c r="U26" s="8">
         <f>+AVERAGE(F26:I26)</f>
         <v>92.852999999999994</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26" s="8">
         <f>+AVERAGE(J26:M26)</f>
         <v>101.795</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W26" s="8">
         <f>+V26</f>
         <v>101.795</v>
       </c>
-      <c r="X26" s="1">
-        <f t="shared" ref="X26:AB26" si="20">+W26</f>
+      <c r="X26" s="8">
+        <f t="shared" ref="X26:AB26" si="21">+W26</f>
         <v>101.795</v>
       </c>
-      <c r="Y26" s="1">
-        <f t="shared" si="20"/>
+      <c r="Y26" s="8">
+        <f t="shared" si="21"/>
         <v>101.795</v>
       </c>
-      <c r="Z26" s="1">
-        <f t="shared" si="20"/>
+      <c r="Z26" s="8">
+        <f t="shared" si="21"/>
         <v>101.795</v>
       </c>
-      <c r="AA26" s="1">
-        <f t="shared" si="20"/>
+      <c r="AA26" s="8">
+        <f t="shared" si="21"/>
         <v>101.795</v>
       </c>
-      <c r="AB26" s="1">
-        <f t="shared" si="20"/>
+      <c r="AB26" s="8">
+        <f t="shared" si="21"/>
         <v>101.795</v>
       </c>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="5">
-        <f t="shared" ref="D28:L28" si="21">+D16/D14</f>
+      <c r="D28" s="13">
+        <f t="shared" ref="D28:L28" si="22">+D16/D14</f>
         <v>0.82649857340762323</v>
       </c>
-      <c r="E28" s="5">
-        <f t="shared" si="21"/>
+      <c r="E28" s="13">
+        <f t="shared" si="22"/>
         <v>0.88082127641461605</v>
       </c>
-      <c r="F28" s="5">
-        <f t="shared" si="21"/>
+      <c r="F28" s="13">
+        <f t="shared" si="22"/>
         <v>0.8618658777120316</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="21"/>
+      <c r="G28" s="13">
+        <f t="shared" si="22"/>
         <v>0.86937581821940146</v>
       </c>
-      <c r="H28" s="5">
-        <f t="shared" si="21"/>
+      <c r="H28" s="13">
+        <f t="shared" si="22"/>
         <v>0.88841439709237313</v>
       </c>
-      <c r="I28" s="5">
-        <f t="shared" si="21"/>
+      <c r="I28" s="13">
+        <f t="shared" si="22"/>
         <v>0.88866402373097508</v>
       </c>
-      <c r="J28" s="5">
-        <f t="shared" si="21"/>
+      <c r="J28" s="13">
+        <f t="shared" si="22"/>
         <v>0.87771849544337588</v>
       </c>
-      <c r="K28" s="5">
-        <f t="shared" si="21"/>
+      <c r="K28" s="13">
+        <f t="shared" si="22"/>
         <v>0.87726317123640574</v>
       </c>
-      <c r="L28" s="5">
-        <f t="shared" si="21"/>
+      <c r="L28" s="13">
+        <f t="shared" si="22"/>
         <v>0.80374399883561887</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="13">
         <f>+M16/M14</f>
         <v>0.79906903281165764</v>
       </c>
-      <c r="U28" s="5">
-        <f t="shared" ref="U28:AB28" si="22">+U16/U14</f>
+      <c r="U28" s="13">
+        <f t="shared" ref="U28:AB28" si="23">+U16/U14</f>
         <v>0.87908095639473149</v>
       </c>
-      <c r="V28" s="5">
-        <f t="shared" si="22"/>
+      <c r="V28" s="13">
+        <f t="shared" si="23"/>
         <v>0.83223425659984918</v>
       </c>
-      <c r="W28" s="5">
-        <f t="shared" si="22"/>
-        <v>0.8</v>
-      </c>
-      <c r="X28" s="5">
-        <f t="shared" si="22"/>
-        <v>0.8</v>
-      </c>
-      <c r="Y28" s="5">
-        <f t="shared" si="22"/>
-        <v>0.8</v>
-      </c>
-      <c r="Z28" s="5">
-        <f t="shared" si="22"/>
-        <v>0.8</v>
-      </c>
-      <c r="AA28" s="5">
-        <f t="shared" si="22"/>
-        <v>0.8</v>
-      </c>
-      <c r="AB28" s="5">
-        <f t="shared" si="22"/>
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
+      <c r="W28" s="13">
+        <f t="shared" si="23"/>
+        <v>0.85</v>
+      </c>
+      <c r="X28" s="13">
+        <f t="shared" si="23"/>
+        <v>0.85</v>
+      </c>
+      <c r="Y28" s="13">
+        <f t="shared" si="23"/>
+        <v>0.85</v>
+      </c>
+      <c r="Z28" s="13">
+        <f t="shared" si="23"/>
+        <v>0.85</v>
+      </c>
+      <c r="AA28" s="13">
+        <f t="shared" si="23"/>
+        <v>0.85</v>
+      </c>
+      <c r="AB28" s="13">
+        <f t="shared" si="23"/>
+        <v>0.85</v>
+      </c>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5">
-        <f t="shared" ref="H29:K29" si="23">+H14/D14-1</f>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13">
+        <f t="shared" ref="H29:K29" si="24">+H14/D14-1</f>
         <v>0.44099726841216147</v>
       </c>
-      <c r="I29" s="5">
-        <f t="shared" si="23"/>
+      <c r="I29" s="13">
+        <f t="shared" si="24"/>
         <v>0.5353697562561186</v>
       </c>
-      <c r="J29" s="5">
-        <f t="shared" si="23"/>
+      <c r="J29" s="13">
+        <f t="shared" si="24"/>
         <v>0.63102169625246551</v>
       </c>
-      <c r="K29" s="5">
-        <f t="shared" si="23"/>
+      <c r="K29" s="13">
+        <f t="shared" si="24"/>
         <v>0.38927338289222857</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="13">
         <f>+L14/H14-1</f>
         <v>0.40800802852174556</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="13">
         <f>+M14/I14-1</f>
         <v>0.65949226399449579</v>
       </c>
-      <c r="U29" s="5" t="s">
+      <c r="U29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V29" s="5">
+      <c r="V29" s="13">
         <f>+V14/U14-1</f>
         <v>0.52979645083871119</v>
       </c>
-      <c r="W29" s="5">
-        <f t="shared" ref="W29:AB29" si="24">+W14/V14-1</f>
+      <c r="W29" s="13">
+        <f t="shared" ref="W29:AB29" si="25">+W14/V14-1</f>
         <v>0.47882470028406199</v>
       </c>
-      <c r="X29" s="5">
-        <f t="shared" si="24"/>
+      <c r="X29" s="13">
+        <f t="shared" si="25"/>
         <v>0.23841012514220705</v>
       </c>
-      <c r="Y29" s="5">
-        <f t="shared" si="24"/>
+      <c r="Y29" s="13">
+        <f t="shared" si="25"/>
         <v>-2.6508583567778632E-2</v>
       </c>
-      <c r="Z29" s="5">
-        <f t="shared" si="24"/>
+      <c r="Z29" s="13">
+        <f t="shared" si="25"/>
         <v>-2.4507381172848675E-2</v>
       </c>
-      <c r="AA29" s="5">
-        <f t="shared" si="24"/>
+      <c r="AA29" s="13">
+        <f t="shared" si="25"/>
         <v>-2.2610773910399007E-2</v>
       </c>
-      <c r="AB29" s="5">
-        <f t="shared" si="24"/>
+      <c r="AB29" s="13">
+        <f t="shared" si="25"/>
         <v>-2.0820463307924197E-2</v>
       </c>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="5">
-        <f t="shared" ref="D30:L30" si="25">+D17/D14</f>
+      <c r="D30" s="13">
+        <f t="shared" ref="D30:L30" si="26">+D17/D14</f>
         <v>0.94110366571270987</v>
       </c>
-      <c r="E30" s="5">
-        <f t="shared" si="25"/>
+      <c r="E30" s="13">
+        <f t="shared" si="26"/>
         <v>0.82732841382672861</v>
       </c>
-      <c r="F30" s="5">
-        <f t="shared" si="25"/>
+      <c r="F30" s="13">
+        <f t="shared" si="26"/>
         <v>0.96914792899408286</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="25"/>
+      <c r="G30" s="13">
+        <f t="shared" si="26"/>
         <v>0.9259372679319241</v>
       </c>
-      <c r="H30" s="5">
-        <f t="shared" si="25"/>
+      <c r="H30" s="13">
+        <f t="shared" si="26"/>
         <v>0.58556674311442747</v>
       </c>
-      <c r="I30" s="5">
-        <f t="shared" si="25"/>
+      <c r="I30" s="13">
+        <f t="shared" si="26"/>
         <v>0.49275796976165692</v>
       </c>
-      <c r="J30" s="5">
-        <f t="shared" si="25"/>
+      <c r="J30" s="13">
+        <f t="shared" si="26"/>
         <v>0.48467581216260663</v>
       </c>
-      <c r="K30" s="5">
-        <f t="shared" si="25"/>
+      <c r="K30" s="13">
+        <f t="shared" si="26"/>
         <v>0.49510788552093926</v>
       </c>
-      <c r="L30" s="5">
-        <f t="shared" si="25"/>
+      <c r="L30" s="13">
+        <f t="shared" si="26"/>
         <v>0.47620403209753404</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="13">
         <f>+M17/M14</f>
         <v>0.3036699546666059</v>
       </c>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U32" s="2">
+      <c r="U32" s="3">
         <f>428.43+1247.82-105.483-1132.515</f>
         <v>438.25199999999995</v>
       </c>
-      <c r="V32" s="2">
+      <c r="V32" s="3">
         <f>1103.01+251.782+133.163-1137.124</f>
         <v>350.8309999999999</v>
       </c>
-      <c r="W32" s="1">
+      <c r="W32" s="8">
         <f>+V32+W24</f>
-        <v>1323.8204480000004</v>
-      </c>
-      <c r="X32" s="1">
-        <f t="shared" ref="X32:AB32" si="26">+W32+X24</f>
-        <v>2853.000239504001</v>
-      </c>
-      <c r="Y32" s="1">
-        <f t="shared" si="26"/>
-        <v>4206.1351577001933</v>
-      </c>
-      <c r="Z32" s="1">
-        <f t="shared" si="26"/>
-        <v>5353.4715714148033</v>
-      </c>
-      <c r="AA32" s="1">
-        <f t="shared" si="26"/>
-        <v>6258.7184061774642</v>
-      </c>
-      <c r="AB32" s="1">
-        <f t="shared" si="26"/>
-        <v>6878.1734519635465</v>
+        <v>1492.5884480000002</v>
+      </c>
+      <c r="X32" s="8">
+        <f t="shared" ref="X32:AB32" si="27">+W32+X24</f>
+        <v>3238.873103504</v>
+      </c>
+      <c r="Y32" s="8">
+        <f t="shared" si="27"/>
+        <v>4813.9935191721925</v>
+      </c>
+      <c r="Z32" s="8">
+        <f t="shared" si="27"/>
+        <v>6188.9843742374578</v>
+      </c>
+      <c r="AA32" s="8">
+        <f t="shared" si="27"/>
+        <v>7328.325339535606</v>
+      </c>
+      <c r="AB32" s="8">
+        <f t="shared" si="27"/>
+        <v>8189.0720825228782</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U33" s="2">
+      <c r="U33" s="3">
         <f>428.43+1247.82</f>
         <v>1676.25</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U34" s="2">
+      <c r="U34" s="3">
         <v>400.327</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="U35" s="2">
+      <c r="U35" s="3">
         <f>322.859+191.368</f>
         <v>514.22699999999998</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="U36" s="2">
+      <c r="U36" s="3">
         <v>102.181</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U37" s="2">
+      <c r="U37" s="3">
         <v>77.713999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U38" s="2">
+      <c r="U38" s="3">
         <v>227.154</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U39" s="2">
+      <c r="U39" s="3">
         <v>129.952</v>
       </c>
-      <c r="V39" s="2" t="s">
+      <c r="V39" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U40" s="2">
+      <c r="U40" s="3">
         <v>136.77099999999999</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U41" s="2">
+      <c r="U41" s="3">
         <f>+SUM(U33:U40)</f>
         <v>3264.5760000000005</v>
       </c>
-      <c r="V41" s="2">
+      <c r="V41" s="3">
         <v>3963.1729999999998</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="2">
+      <c r="U43" s="3">
         <f>105.483+1132.515</f>
         <v>1237.998</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U44" s="2">
+      <c r="U44" s="3">
         <v>164.91800000000001</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U45" s="2">
+      <c r="U45" s="3">
         <v>314.99700000000001</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="U46" s="2">
+      <c r="U46" s="3">
         <v>50.415999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="2">
+      <c r="U47" s="3">
         <v>17.844999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="U48" s="2">
+      <c r="U48" s="3">
         <v>140.965</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="U49" s="2">
+      <c r="U49" s="3">
         <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U50" s="2">
+      <c r="U50" s="3">
         <v>38.1</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="U51" s="2">
+      <c r="U51" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="U52" s="2">
+      <c r="U52" s="3">
         <f>+SUM(U43:U51)</f>
         <v>2405.239</v>
       </c>
-      <c r="V52" s="2">
+      <c r="V52" s="3">
         <v>2435.431</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U53" s="2">
+      <c r="U53" s="3">
         <f>+U41-U52</f>
         <v>859.33700000000044</v>
       </c>
-      <c r="V53" s="2">
+      <c r="V53" s="3">
         <f>+V41-V52</f>
         <v>1527.7419999999997</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="U54" s="2">
+      <c r="U54" s="3">
         <f>+U52+U53</f>
         <v>3264.5760000000005</v>
       </c>
-      <c r="V54" s="2">
+      <c r="V54" s="3">
         <f>+V52+V53</f>
         <v>3963.1729999999998</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="U56" s="5">
+      <c r="U56" s="13">
         <f>+U24/U53</f>
         <v>-0.2529054375640753</v>
       </c>
-      <c r="V56" s="5">
+      <c r="V56" s="13">
         <f>+V24/V53</f>
         <v>0.18994437542464626</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U57" s="5">
+      <c r="U57" s="13">
         <f>+U24/U41</f>
         <v>-6.6572504361975288E-2</v>
       </c>
-      <c r="V57" s="5">
+      <c r="V57" s="13">
         <f>+V24/V41</f>
         <v>7.3220623979826233E-2</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P59" s="2">
+      <c r="P59" s="3">
         <v>-456.5</v>
       </c>
-      <c r="S59" s="2">
+      <c r="S59" s="3">
         <v>-443.2</v>
       </c>
-      <c r="T59" s="2">
+      <c r="T59" s="3">
         <v>-325.3</v>
       </c>
-      <c r="U59" s="2">
+      <c r="U59" s="3">
         <v>-501</v>
       </c>
-      <c r="V59" s="2">
+      <c r="V59" s="3">
         <v>325.346</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P60" s="2">
+      <c r="P60" s="3">
         <v>286</v>
       </c>
-      <c r="S60" s="2">
+      <c r="S60" s="3">
         <v>495.4</v>
       </c>
-      <c r="T60" s="2">
+      <c r="T60" s="3">
         <v>-1046.9000000000001</v>
       </c>
-      <c r="U60" s="2">
+      <c r="U60" s="3">
         <v>-165.8</v>
       </c>
-      <c r="V60" s="2">
+      <c r="V60" s="3">
         <v>-1046.883</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="P61" s="2">
+      <c r="P61" s="3">
         <v>642.6</v>
       </c>
-      <c r="S61" s="2">
+      <c r="S61" s="3">
         <v>561.6</v>
       </c>
-      <c r="T61" s="2">
+      <c r="T61" s="3">
         <v>232.5</v>
       </c>
-      <c r="U61" s="2">
+      <c r="U61" s="3">
         <v>125</v>
       </c>
-      <c r="V61" s="2">
+      <c r="V61" s="3">
         <v>232.50700000000001</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P62" s="2">
+      <c r="P62" s="3">
         <v>-82.2</v>
       </c>
-      <c r="S62" s="2">
+      <c r="S62" s="3">
         <v>-38.5</v>
       </c>
-      <c r="T62" s="2">
+      <c r="T62" s="3">
         <v>-30.8</v>
       </c>
-      <c r="U62" s="2">
+      <c r="U62" s="3">
         <v>-76.099999999999994</v>
       </c>
-      <c r="V62" s="2">
+      <c r="V62" s="3">
         <v>-30.824000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P63" s="2">
-        <f t="shared" ref="P63:T63" si="27">+P59+P60+P61-P62</f>
+      <c r="P63" s="3">
+        <f t="shared" ref="P63:T63" si="28">+P59+P60+P61-P62</f>
         <v>554.30000000000007</v>
       </c>
-      <c r="S63" s="2">
-        <f t="shared" si="27"/>
+      <c r="S63" s="3">
+        <f t="shared" si="28"/>
         <v>652.29999999999995</v>
       </c>
-      <c r="T63" s="2">
-        <f t="shared" si="27"/>
+      <c r="T63" s="3">
+        <f t="shared" si="28"/>
         <v>-1108.9000000000001</v>
       </c>
-      <c r="U63" s="2">
+      <c r="U63" s="3">
         <f>+U59+U60+U61-U62</f>
         <v>-465.69999999999993</v>
       </c>
-      <c r="V63" s="2">
+      <c r="V63" s="3">
         <f>+V59+V60+V61-V62</f>
         <v>-458.20600000000002</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>20</v>
       </c>
     </row>
